--- a/biology/Botanique/Aconitum_lycoctonum/Aconitum_lycoctonum.xlsx
+++ b/biology/Botanique/Aconitum_lycoctonum/Aconitum_lycoctonum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aconitum lycoctonum est une espèce de plantes de la famille des renonculacées.
 C'est notamment l'espèce de l'aconit tue-loup et de l'aconit de Naples.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée dressée (80-100 cm).
 Feuilles: alternes, palmatiséquées, à segments cunéiformes trifides.
@@ -547,7 +561,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme Aconitum napellus, cette espèce contient de l'aconitine. Elle est donc potentiellement mortelle. Il faut cependant remarquer que la littérature récente ne signale pas d'empoisonnement par cette plante.
 Cet aconit faisait certainement partie des espèces utilisées au Moyen Age pour tuer les loups (d’où le nom de lycoctonum) et les renards (d’où le nom de vulparia)
@@ -579,12 +595,14 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aconitum lycoctonum subsp. lycoctonum : à fleurs bleues ou blanches - Nord et Est de l'Europe
 Aconitum lycoctonum subsp. neapolitanum (Ten.) Nyman  - l'Aconit de Naples : à fleurs jaunes en panicule plus dense, feuilles plus divisées - Montagnes du Sud de l'Europe
 Aconitum lycoctonum subsp. vulparia (Rchb.) Nyman - l'Aconit tue-loup : à fleurs jaune pâle, feuilles comme celle de subsp. lycoctonum - Europe centrale jusque dans l'Est de la France
-Les deux sous-espèces suivantes sont endémiques dans l'Est de l'Europe[1]: 
+Les deux sous-espèces suivantes sont endémiques dans l'Est de l'Europe: 
 Aconitum lycoctonum subsp. lasiostomum (Rchb. ex Besser) K.Warncke
 Aconitum lycoctonum subsp. moldavicum (Hacq.) Jalas
 En 2001, une nothosous-espèce a été décrite : 
@@ -623,7 +641,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Les sous-espèces d'Aconitum lycoctonum
